--- a/R2/02_SignalMatrix/LkaLdwAdap/LkaLdwAdap_SignalMatrix_V5_R2.xlsx
+++ b/R2/02_SignalMatrix/LkaLdwAdap/LkaLdwAdap_SignalMatrix_V5_R2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\00_2020\90_GitHub\0410\Veoneer\R2\02_SignalMatrix\LkaLdwAdap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40DB23AD-B558-450B-935E-ED90056A646F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{891D3757-5F47-4A83-B1F3-309BA608ED2E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{51B81819-EC55-40BC-AC3D-96F7FA05F5FF}"/>
   </bookViews>
@@ -139,7 +139,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1209" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1209" uniqueCount="464">
   <si>
     <t>Change Log</t>
   </si>
@@ -1136,9 +1136,6 @@
     <t>ASP_LaneOutput.ego_lane.left.id</t>
   </si>
   <si>
-    <t>ASP_LaneOutput.ego_lane.left.detection_distance</t>
-  </si>
-  <si>
     <t>ASP_LaneOutput.ego_lane.left.MarkingType</t>
   </si>
   <si>
@@ -1163,16 +1160,10 @@
     <t>ASP_LaneOutput.ego_lane.left.ModelError</t>
   </si>
   <si>
-    <t>ASP_LaneOutput.ego_lane.left.measurement_quality</t>
-  </si>
-  <si>
     <t>ASP_LaneOutput.ego_lane.left.SelectionConfidence</t>
   </si>
   <si>
     <t>ASP_LaneOutput.ego_lane.left.DistanceFirstToSecondMarking</t>
-  </si>
-  <si>
-    <t>ASP_LaneOutput.ego_lane.left.clothoid.lateral_distance</t>
   </si>
   <si>
     <t xml:space="preserve">ASP_LaneOutput.ego_lane.left.clothoid.heading </t>
@@ -1728,10 +1719,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>HLLA_OUTPUTS</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">Cx0_LkaModSR_Default
 Cx1_LkaModSR_LDW_mode
 Cx2_LkaModSR_LKA_mode
@@ -1838,6 +1825,18 @@
   <si>
     <t>ASP_LssOutput
 (ASP Arxml : As_LssOutput)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ASP_LaneOutput.ego_lane.left.clothoid.lateral_distance</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ASP_LaneOutput.ego_lane.left.detection_distance</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ASP_LaneOutput.ego_lane.left.measurement_quality</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -5759,7 +5758,7 @@
         <v>208</v>
       </c>
       <c r="F6" s="53" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
@@ -5799,7 +5798,7 @@
         <v>207</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="F7" s="20"/>
       <c r="G7" s="2"/>
@@ -5837,13 +5836,13 @@
         <v>44006</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
@@ -7271,8 +7270,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45D27E9A-821C-4719-949E-ADFE999540AB}">
   <dimension ref="B1:I731"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A48" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G66" sqref="G66"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A70" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J87" sqref="J87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -7314,10 +7313,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="91" t="s">
-        <v>445</v>
+        <v>211</v>
       </c>
       <c r="D3" s="34" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="E3" s="56" t="s">
         <v>12</v>
@@ -7326,7 +7325,7 @@
         <v>18</v>
       </c>
       <c r="G3" s="32" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="H3" s="71" t="s">
         <v>202</v>
@@ -7338,7 +7337,7 @@
       </c>
       <c r="C4" s="92"/>
       <c r="D4" s="34" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="E4" s="56" t="s">
         <v>12</v>
@@ -7347,7 +7346,7 @@
         <v>18</v>
       </c>
       <c r="G4" s="35" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="H4" s="71" t="s">
         <v>202</v>
@@ -7359,7 +7358,7 @@
       </c>
       <c r="C5" s="92"/>
       <c r="D5" s="59" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="E5" s="56" t="s">
         <v>12</v>
@@ -7368,7 +7367,7 @@
         <v>18</v>
       </c>
       <c r="G5" s="72" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="H5" s="62" t="s">
         <v>218</v>
@@ -7380,7 +7379,7 @@
       </c>
       <c r="C6" s="92"/>
       <c r="D6" s="59" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="E6" s="27" t="s">
         <v>12</v>
@@ -7399,7 +7398,7 @@
       </c>
       <c r="C7" s="92"/>
       <c r="D7" s="34" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="E7" s="56" t="s">
         <v>12</v>
@@ -7408,7 +7407,7 @@
         <v>18</v>
       </c>
       <c r="G7" s="35" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="H7" s="71" t="s">
         <v>202</v>
@@ -7420,7 +7419,7 @@
       </c>
       <c r="C8" s="92"/>
       <c r="D8" s="34" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="E8" s="56" t="s">
         <v>12</v>
@@ -7429,7 +7428,7 @@
         <v>18</v>
       </c>
       <c r="G8" s="35" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="H8" s="71" t="s">
         <v>202</v>
@@ -7441,7 +7440,7 @@
       </c>
       <c r="C9" s="92"/>
       <c r="D9" s="34" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="E9" s="56" t="s">
         <v>12</v>
@@ -7450,7 +7449,7 @@
         <v>18</v>
       </c>
       <c r="G9" s="32" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="H9" s="71" t="s">
         <v>202</v>
@@ -7462,7 +7461,7 @@
       </c>
       <c r="C10" s="92"/>
       <c r="D10" s="34" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="E10" s="56" t="s">
         <v>12</v>
@@ -7471,7 +7470,7 @@
         <v>18</v>
       </c>
       <c r="G10" s="32" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="H10" s="71" t="s">
         <v>202</v>
@@ -7483,7 +7482,7 @@
       </c>
       <c r="C11" s="92"/>
       <c r="D11" s="34" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="E11" s="56" t="s">
         <v>12</v>
@@ -7492,7 +7491,7 @@
         <v>18</v>
       </c>
       <c r="G11" s="73" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="H11" s="71" t="s">
         <v>202</v>
@@ -7504,7 +7503,7 @@
       </c>
       <c r="C12" s="92"/>
       <c r="D12" s="34" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="E12" s="56" t="s">
         <v>12</v>
@@ -7513,7 +7512,7 @@
         <v>18</v>
       </c>
       <c r="G12" s="32" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="H12" s="71" t="s">
         <v>202</v>
@@ -7525,7 +7524,7 @@
       </c>
       <c r="C13" s="92"/>
       <c r="D13" s="34" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="E13" s="56" t="s">
         <v>12</v>
@@ -7534,7 +7533,7 @@
         <v>18</v>
       </c>
       <c r="G13" s="32" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="H13" s="71" t="s">
         <v>202</v>
@@ -7546,7 +7545,7 @@
       </c>
       <c r="C14" s="92"/>
       <c r="D14" s="34" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="E14" s="33" t="s">
         <v>21</v>
@@ -7563,7 +7562,7 @@
       </c>
       <c r="C15" s="92"/>
       <c r="D15" s="34" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="E15" s="33" t="s">
         <v>21</v>
@@ -7580,7 +7579,7 @@
       </c>
       <c r="C16" s="92"/>
       <c r="D16" s="34" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="E16" s="33" t="s">
         <v>21</v>
@@ -7597,7 +7596,7 @@
       </c>
       <c r="C17" s="92"/>
       <c r="D17" s="34" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="E17" s="33" t="s">
         <v>21</v>
@@ -7614,7 +7613,7 @@
       </c>
       <c r="C18" s="92"/>
       <c r="D18" s="34" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="E18" s="33" t="s">
         <v>21</v>
@@ -7631,7 +7630,7 @@
       </c>
       <c r="C19" s="92"/>
       <c r="D19" s="34" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="E19" s="33" t="s">
         <v>21</v>
@@ -7648,7 +7647,7 @@
       </c>
       <c r="C20" s="92"/>
       <c r="D20" s="34" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="E20" s="33" t="s">
         <v>21</v>
@@ -7665,7 +7664,7 @@
       </c>
       <c r="C21" s="92"/>
       <c r="D21" s="34" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="E21" s="33" t="s">
         <v>21</v>
@@ -7682,7 +7681,7 @@
       </c>
       <c r="C22" s="92"/>
       <c r="D22" s="34" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="E22" s="33" t="s">
         <v>22</v>
@@ -7699,7 +7698,7 @@
       </c>
       <c r="C23" s="92"/>
       <c r="D23" s="34" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="E23" s="33" t="s">
         <v>22</v>
@@ -7716,7 +7715,7 @@
       </c>
       <c r="C24" s="92"/>
       <c r="D24" s="34" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="E24" s="33" t="s">
         <v>12</v>
@@ -7725,10 +7724,10 @@
         <v>18</v>
       </c>
       <c r="G24" s="84" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="H24" s="85" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
     </row>
     <row r="25" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -7737,7 +7736,7 @@
       </c>
       <c r="C25" s="92"/>
       <c r="D25" s="34" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="E25" s="33" t="s">
         <v>12</v>
@@ -7746,10 +7745,10 @@
         <v>18</v>
       </c>
       <c r="G25" s="84" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="H25" s="85" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
     </row>
     <row r="26" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -7758,7 +7757,7 @@
       </c>
       <c r="C26" s="92"/>
       <c r="D26" s="34" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="E26" s="33" t="s">
         <v>12</v>
@@ -7767,10 +7766,10 @@
         <v>18</v>
       </c>
       <c r="G26" s="86" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="H26" s="85" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
     </row>
     <row r="27" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -7779,7 +7778,7 @@
       </c>
       <c r="C27" s="92"/>
       <c r="D27" s="34" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="E27" s="33" t="s">
         <v>12</v>
@@ -7788,10 +7787,10 @@
         <v>18</v>
       </c>
       <c r="G27" s="86" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="H27" s="85" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
     </row>
     <row r="28" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -7800,7 +7799,7 @@
       </c>
       <c r="C28" s="92"/>
       <c r="D28" s="34" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="E28" s="33" t="s">
         <v>12</v>
@@ -7809,13 +7808,13 @@
         <v>18</v>
       </c>
       <c r="G28" s="86" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="H28" s="83" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="I28" s="85" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
     </row>
     <row r="29" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -7824,7 +7823,7 @@
       </c>
       <c r="C29" s="92"/>
       <c r="D29" s="34" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="E29" s="33" t="s">
         <v>12</v>
@@ -7833,13 +7832,13 @@
         <v>18</v>
       </c>
       <c r="G29" s="86" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="H29" s="83" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="I29" s="85" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
     </row>
     <row r="30" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -7848,7 +7847,7 @@
       </c>
       <c r="C30" s="92"/>
       <c r="D30" s="34" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="E30" s="33" t="s">
         <v>21</v>
@@ -7882,7 +7881,7 @@
       </c>
       <c r="C32" s="92"/>
       <c r="D32" s="34" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="E32" s="33" t="s">
         <v>21</v>
@@ -7899,7 +7898,7 @@
       </c>
       <c r="C33" s="92"/>
       <c r="D33" s="34" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="E33" s="33" t="s">
         <v>21</v>
@@ -7916,7 +7915,7 @@
       </c>
       <c r="C34" s="92"/>
       <c r="D34" s="34" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="E34" s="33" t="s">
         <v>21</v>
@@ -7933,7 +7932,7 @@
       </c>
       <c r="C35" s="92"/>
       <c r="D35" s="34" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="E35" s="33" t="s">
         <v>21</v>
@@ -7950,7 +7949,7 @@
       </c>
       <c r="C36" s="92"/>
       <c r="D36" s="34" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="E36" s="33" t="s">
         <v>21</v>
@@ -7967,7 +7966,7 @@
       </c>
       <c r="C37" s="92"/>
       <c r="D37" s="34" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="E37" s="33" t="s">
         <v>21</v>
@@ -7984,7 +7983,7 @@
       </c>
       <c r="C38" s="92"/>
       <c r="D38" s="34" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="E38" s="33" t="s">
         <v>12</v>
@@ -7993,10 +7992,10 @@
         <v>18</v>
       </c>
       <c r="G38" s="86" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="H38" s="85" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
     </row>
     <row r="39" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -8005,7 +8004,7 @@
       </c>
       <c r="C39" s="92"/>
       <c r="D39" s="34" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="E39" s="33" t="s">
         <v>12</v>
@@ -8014,10 +8013,10 @@
         <v>18</v>
       </c>
       <c r="G39" s="86" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="H39" s="85" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
     </row>
     <row r="40" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -8026,7 +8025,7 @@
       </c>
       <c r="C40" s="92"/>
       <c r="D40" s="34" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="E40" s="33" t="s">
         <v>12</v>
@@ -8035,10 +8034,10 @@
         <v>18</v>
       </c>
       <c r="G40" s="86" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="H40" s="85" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
     </row>
     <row r="41" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -8047,7 +8046,7 @@
       </c>
       <c r="C41" s="93"/>
       <c r="D41" s="34" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="E41" s="33" t="s">
         <v>12</v>
@@ -8056,16 +8055,16 @@
         <v>18</v>
       </c>
       <c r="G41" s="86" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="H41" s="85" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
     </row>
     <row r="42" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="81"/>
       <c r="C42" s="97" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="D42" s="57" t="s">
         <v>37</v>
@@ -8074,7 +8073,7 @@
       <c r="F42" s="25"/>
       <c r="G42" s="37"/>
       <c r="H42" s="82" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="43" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -8083,7 +8082,7 @@
       </c>
       <c r="C43" s="98"/>
       <c r="D43" s="47" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="E43" s="81" t="s">
         <v>14</v>
@@ -8093,7 +8092,7 @@
       </c>
       <c r="G43" s="37"/>
       <c r="H43" s="82" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="44" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -8102,7 +8101,7 @@
       </c>
       <c r="C44" s="98"/>
       <c r="D44" s="78" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="E44" s="81" t="s">
         <v>12</v>
@@ -8111,10 +8110,10 @@
         <v>18</v>
       </c>
       <c r="G44" s="40" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="H44" s="82" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="45" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -8123,7 +8122,7 @@
       </c>
       <c r="C45" s="98"/>
       <c r="D45" s="78" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="E45" s="81" t="s">
         <v>12</v>
@@ -8132,10 +8131,10 @@
         <v>18</v>
       </c>
       <c r="G45" s="40" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="H45" s="82" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="46" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -8148,7 +8147,7 @@
       <c r="F46" s="25"/>
       <c r="G46" s="37"/>
       <c r="H46" s="82" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="47" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -8157,7 +8156,7 @@
       </c>
       <c r="C47" s="98"/>
       <c r="D47" s="47" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="E47" s="81" t="s">
         <v>14</v>
@@ -8167,10 +8166,10 @@
       </c>
       <c r="G47" s="37"/>
       <c r="H47" s="82" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="I47" s="87" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
     </row>
     <row r="48" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -8179,7 +8178,7 @@
       </c>
       <c r="C48" s="98"/>
       <c r="D48" s="34" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="E48" s="81" t="s">
         <v>12</v>
@@ -8188,10 +8187,10 @@
         <v>18</v>
       </c>
       <c r="G48" s="40" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="H48" s="82" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="49" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -8200,7 +8199,7 @@
       </c>
       <c r="C49" s="98"/>
       <c r="D49" s="34" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="E49" s="81" t="s">
         <v>12</v>
@@ -8209,10 +8208,10 @@
         <v>18</v>
       </c>
       <c r="G49" s="40" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="H49" s="82" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="50" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -8225,7 +8224,7 @@
       <c r="F50" s="25"/>
       <c r="G50" s="37"/>
       <c r="H50" s="82" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="51" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -8234,7 +8233,7 @@
       </c>
       <c r="C51" s="98"/>
       <c r="D51" s="47" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="E51" s="81" t="s">
         <v>14</v>
@@ -8244,7 +8243,7 @@
       </c>
       <c r="G51" s="37"/>
       <c r="H51" s="82" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="52" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -8253,7 +8252,7 @@
       </c>
       <c r="C52" s="98"/>
       <c r="D52" s="34" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="E52" s="81" t="s">
         <v>12</v>
@@ -8262,10 +8261,10 @@
         <v>18</v>
       </c>
       <c r="G52" s="40" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="H52" s="82" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="53" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -8274,7 +8273,7 @@
       </c>
       <c r="C53" s="99"/>
       <c r="D53" s="34" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="E53" s="81" t="s">
         <v>12</v>
@@ -8283,10 +8282,10 @@
         <v>18</v>
       </c>
       <c r="G53" s="40" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="H53" s="82" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="54" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -8306,7 +8305,7 @@
         <v>11</v>
       </c>
       <c r="G54" s="32" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
     </row>
     <row r="55" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -8335,7 +8334,7 @@
     <row r="56" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B56" s="33"/>
       <c r="C56" s="96" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="D56" s="40" t="s">
         <v>33</v>
@@ -8359,7 +8358,7 @@
         <v>11</v>
       </c>
       <c r="G57" s="36" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
     </row>
     <row r="58" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -8410,7 +8409,7 @@
       </c>
       <c r="C61" s="96"/>
       <c r="D61" s="46" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="E61" s="33" t="s">
         <v>30</v>
@@ -8419,7 +8418,7 @@
         <v>11</v>
       </c>
       <c r="G61" s="35" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
     </row>
     <row r="62" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -8438,7 +8437,7 @@
       </c>
       <c r="C63" s="96"/>
       <c r="D63" s="46" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="E63" s="33" t="s">
         <v>30</v>
@@ -8447,7 +8446,7 @@
         <v>11</v>
       </c>
       <c r="G63" s="36" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
     </row>
     <row r="64" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -8535,7 +8534,7 @@
         <v>11</v>
       </c>
       <c r="G69" s="36" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
     </row>
     <row r="70" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -8586,7 +8585,7 @@
       </c>
       <c r="C73" s="96"/>
       <c r="D73" s="37" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="E73" s="33" t="s">
         <v>30</v>
@@ -8711,7 +8710,7 @@
         <v>11</v>
       </c>
       <c r="G81" s="36" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
     </row>
     <row r="82" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -8795,10 +8794,10 @@
         <v>72</v>
       </c>
       <c r="C87" s="55" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="D87" s="47" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="E87" s="33" t="s">
         <v>30</v>
@@ -8807,16 +8806,16 @@
         <v>11</v>
       </c>
       <c r="G87" s="40" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
     </row>
     <row r="88" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B88" s="33"/>
       <c r="C88" s="95" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="D88" s="57" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="E88" s="56"/>
       <c r="F88" s="25"/>
@@ -8838,7 +8837,7 @@
       </c>
       <c r="C90" s="95"/>
       <c r="D90" s="63" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="E90" s="41" t="s">
         <v>60</v>
@@ -8870,7 +8869,7 @@
       </c>
       <c r="C92" s="95"/>
       <c r="D92" s="63" t="s">
-        <v>307</v>
+        <v>462</v>
       </c>
       <c r="E92" s="41" t="s">
         <v>13</v>
@@ -8886,7 +8885,7 @@
       </c>
       <c r="C93" s="95"/>
       <c r="D93" s="63" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E93" s="43" t="s">
         <v>12</v>
@@ -8904,7 +8903,7 @@
       </c>
       <c r="C94" s="95"/>
       <c r="D94" s="26" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E94" s="41" t="s">
         <v>61</v>
@@ -8920,7 +8919,7 @@
       </c>
       <c r="C95" s="95"/>
       <c r="D95" s="26" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="E95" s="41" t="s">
         <v>61</v>
@@ -8936,7 +8935,7 @@
       </c>
       <c r="C96" s="95"/>
       <c r="D96" s="63" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E96" s="33" t="s">
         <v>12</v>
@@ -8954,7 +8953,7 @@
       </c>
       <c r="C97" s="95"/>
       <c r="D97" s="63" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E97" s="33" t="s">
         <v>14</v>
@@ -8972,7 +8971,7 @@
       </c>
       <c r="C98" s="95"/>
       <c r="D98" s="26" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E98" s="33" t="s">
         <v>14</v>
@@ -8990,7 +8989,7 @@
       </c>
       <c r="C99" s="95"/>
       <c r="D99" s="26" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E99" s="33" t="s">
         <v>61</v>
@@ -9006,7 +9005,7 @@
       </c>
       <c r="C100" s="95"/>
       <c r="D100" s="63" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E100" s="33" t="s">
         <v>30</v>
@@ -9024,7 +9023,7 @@
       </c>
       <c r="C101" s="95"/>
       <c r="D101" s="26" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E101" s="33" t="s">
         <v>61</v>
@@ -9040,7 +9039,7 @@
       </c>
       <c r="C102" s="95"/>
       <c r="D102" s="63" t="s">
-        <v>316</v>
+        <v>463</v>
       </c>
       <c r="E102" s="33" t="s">
         <v>61</v>
@@ -9056,7 +9055,7 @@
       </c>
       <c r="C103" s="95"/>
       <c r="D103" s="26" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="E103" s="33" t="s">
         <v>61</v>
@@ -9072,7 +9071,7 @@
       </c>
       <c r="C104" s="95"/>
       <c r="D104" s="26" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="E104" s="33" t="s">
         <v>61</v>
@@ -9086,7 +9085,7 @@
       <c r="B105" s="33"/>
       <c r="C105" s="95"/>
       <c r="D105" s="57" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="E105" s="56"/>
       <c r="F105" s="25"/>
@@ -9098,7 +9097,7 @@
       </c>
       <c r="C106" s="95"/>
       <c r="D106" s="63" t="s">
-        <v>319</v>
+        <v>461</v>
       </c>
       <c r="E106" s="33" t="s">
         <v>21</v>
@@ -9114,7 +9113,7 @@
       </c>
       <c r="C107" s="95"/>
       <c r="D107" s="63" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="E107" s="33" t="s">
         <v>21</v>
@@ -9130,7 +9129,7 @@
       </c>
       <c r="C108" s="95"/>
       <c r="D108" s="63" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="E108" s="33" t="s">
         <v>21</v>
@@ -9146,7 +9145,7 @@
       </c>
       <c r="C109" s="95"/>
       <c r="D109" s="63" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="E109" s="33" t="s">
         <v>21</v>
@@ -9162,7 +9161,7 @@
       </c>
       <c r="C110" s="95"/>
       <c r="D110" s="26" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="E110" s="33" t="s">
         <v>21</v>
@@ -9178,7 +9177,7 @@
       </c>
       <c r="C111" s="95"/>
       <c r="D111" s="26" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="E111" s="33" t="s">
         <v>21</v>
@@ -9194,7 +9193,7 @@
       </c>
       <c r="C112" s="95"/>
       <c r="D112" s="26" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="E112" s="33" t="s">
         <v>14</v>
@@ -9210,7 +9209,7 @@
       </c>
       <c r="C113" s="95"/>
       <c r="D113" s="26" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="E113" s="33" t="s">
         <v>14</v>
@@ -9226,7 +9225,7 @@
       </c>
       <c r="C114" s="95"/>
       <c r="D114" s="26" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="E114" s="33" t="s">
         <v>14</v>
@@ -9240,7 +9239,7 @@
       <c r="B115" s="33"/>
       <c r="C115" s="95"/>
       <c r="D115" s="57" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="E115" s="56"/>
       <c r="F115" s="25"/>
@@ -9252,7 +9251,7 @@
       </c>
       <c r="C116" s="95"/>
       <c r="D116" s="26" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="E116" s="33" t="s">
         <v>21</v>
@@ -9268,7 +9267,7 @@
       </c>
       <c r="C117" s="95"/>
       <c r="D117" s="26" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="E117" s="33" t="s">
         <v>21</v>
@@ -9284,7 +9283,7 @@
       </c>
       <c r="C118" s="95"/>
       <c r="D118" s="26" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="E118" s="33" t="s">
         <v>21</v>
@@ -9300,7 +9299,7 @@
       </c>
       <c r="C119" s="95"/>
       <c r="D119" s="26" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="E119" s="33" t="s">
         <v>21</v>
@@ -9316,7 +9315,7 @@
       </c>
       <c r="C120" s="95"/>
       <c r="D120" s="26" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="E120" s="33" t="s">
         <v>21</v>
@@ -9330,7 +9329,7 @@
       <c r="B121" s="33"/>
       <c r="C121" s="95"/>
       <c r="D121" s="57" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="E121" s="56"/>
       <c r="F121" s="25"/>
@@ -9342,7 +9341,7 @@
       </c>
       <c r="C122" s="95"/>
       <c r="D122" s="63" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="E122" s="41" t="s">
         <v>60</v>
@@ -9358,7 +9357,7 @@
       </c>
       <c r="C123" s="95"/>
       <c r="D123" s="26" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="E123" s="41" t="s">
         <v>61</v>
@@ -9374,7 +9373,7 @@
       </c>
       <c r="C124" s="95"/>
       <c r="D124" s="26" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="E124" s="41" t="s">
         <v>13</v>
@@ -9390,7 +9389,7 @@
       </c>
       <c r="C125" s="95"/>
       <c r="D125" s="63" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="E125" s="43" t="s">
         <v>12</v>
@@ -9408,7 +9407,7 @@
       </c>
       <c r="C126" s="95"/>
       <c r="D126" s="26" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="E126" s="41" t="s">
         <v>61</v>
@@ -9424,7 +9423,7 @@
       </c>
       <c r="C127" s="95"/>
       <c r="D127" s="26" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="E127" s="41" t="s">
         <v>61</v>
@@ -9440,7 +9439,7 @@
       </c>
       <c r="C128" s="95"/>
       <c r="D128" s="63" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="E128" s="33" t="s">
         <v>12</v>
@@ -9458,7 +9457,7 @@
       </c>
       <c r="C129" s="95"/>
       <c r="D129" s="63" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="E129" s="33" t="s">
         <v>14</v>
@@ -9476,7 +9475,7 @@
       </c>
       <c r="C130" s="95"/>
       <c r="D130" s="26" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="E130" s="33" t="s">
         <v>14</v>
@@ -9494,7 +9493,7 @@
       </c>
       <c r="C131" s="95"/>
       <c r="D131" s="26" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="E131" s="41" t="s">
         <v>61</v>
@@ -9510,7 +9509,7 @@
       </c>
       <c r="C132" s="95"/>
       <c r="D132" s="63" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="E132" s="33" t="s">
         <v>30</v>
@@ -9528,7 +9527,7 @@
       </c>
       <c r="C133" s="95"/>
       <c r="D133" s="26" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="E133" s="41" t="s">
         <v>61</v>
@@ -9544,7 +9543,7 @@
       </c>
       <c r="C134" s="95"/>
       <c r="D134" s="63" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="E134" s="41" t="s">
         <v>61</v>
@@ -9560,7 +9559,7 @@
       </c>
       <c r="C135" s="95"/>
       <c r="D135" s="26" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="E135" s="41" t="s">
         <v>61</v>
@@ -9576,7 +9575,7 @@
       </c>
       <c r="C136" s="95"/>
       <c r="D136" s="26" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="E136" s="41" t="s">
         <v>61</v>
@@ -9590,7 +9589,7 @@
       <c r="B137" s="33"/>
       <c r="C137" s="95"/>
       <c r="D137" s="57" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="E137" s="56"/>
       <c r="F137" s="25"/>
@@ -9602,7 +9601,7 @@
       </c>
       <c r="C138" s="95"/>
       <c r="D138" s="63" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E138" s="33" t="s">
         <v>21</v>
@@ -9618,7 +9617,7 @@
       </c>
       <c r="C139" s="95"/>
       <c r="D139" s="63" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="E139" s="33" t="s">
         <v>21</v>
@@ -9634,7 +9633,7 @@
       </c>
       <c r="C140" s="95"/>
       <c r="D140" s="63" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="E140" s="33" t="s">
         <v>21</v>
@@ -9650,7 +9649,7 @@
       </c>
       <c r="C141" s="95"/>
       <c r="D141" s="63" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E141" s="33" t="s">
         <v>21</v>
@@ -9666,7 +9665,7 @@
       </c>
       <c r="C142" s="95"/>
       <c r="D142" s="26" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="E142" s="33" t="s">
         <v>21</v>
@@ -9682,7 +9681,7 @@
       </c>
       <c r="C143" s="95"/>
       <c r="D143" s="26" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="E143" s="33" t="s">
         <v>21</v>
@@ -9698,7 +9697,7 @@
       </c>
       <c r="C144" s="95"/>
       <c r="D144" s="26" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="E144" s="33" t="s">
         <v>14</v>
@@ -9714,7 +9713,7 @@
       </c>
       <c r="C145" s="95"/>
       <c r="D145" s="26" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="E145" s="33" t="s">
         <v>14</v>
@@ -9730,7 +9729,7 @@
       </c>
       <c r="C146" s="95"/>
       <c r="D146" s="26" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="E146" s="33" t="s">
         <v>14</v>
@@ -9744,7 +9743,7 @@
       <c r="B147" s="33"/>
       <c r="C147" s="95"/>
       <c r="D147" s="57" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="E147" s="56"/>
       <c r="F147" s="25"/>
@@ -9756,7 +9755,7 @@
       </c>
       <c r="C148" s="95"/>
       <c r="D148" s="26" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="E148" s="33" t="s">
         <v>21</v>
@@ -9772,7 +9771,7 @@
       </c>
       <c r="C149" s="95"/>
       <c r="D149" s="26" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="E149" s="33" t="s">
         <v>21</v>
@@ -9788,7 +9787,7 @@
       </c>
       <c r="C150" s="95"/>
       <c r="D150" s="26" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="E150" s="33" t="s">
         <v>21</v>
@@ -9804,7 +9803,7 @@
       </c>
       <c r="C151" s="95"/>
       <c r="D151" s="26" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="E151" s="33" t="s">
         <v>21</v>
@@ -9820,7 +9819,7 @@
       </c>
       <c r="C152" s="95"/>
       <c r="D152" s="26" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="E152" s="33" t="s">
         <v>21</v>
@@ -12096,7 +12095,7 @@
         <v>210</v>
       </c>
       <c r="D297" s="57" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="E297" s="56"/>
       <c r="F297" s="25"/>
@@ -12204,7 +12203,7 @@
       <c r="B304" s="33"/>
       <c r="C304" s="95"/>
       <c r="D304" s="57" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="E304" s="56"/>
       <c r="F304" s="42"/>
@@ -15560,7 +15559,7 @@
         <v>15</v>
       </c>
       <c r="L2" s="77" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -15719,7 +15718,7 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="75" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>211</v>
@@ -15744,7 +15743,7 @@
         <v>213</v>
       </c>
       <c r="B11" s="79" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>18</v>
